--- a/PEMERINTAHAN/nama perangkat desa.xlsx
+++ b/PEMERINTAHAN/nama perangkat desa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -23,6 +23,57 @@
   </si>
   <si>
     <t>Alamat</t>
+  </si>
+  <si>
+    <t>tirtonadi</t>
+  </si>
+  <si>
+    <t>ujang rahmat hidayat</t>
+  </si>
+  <si>
+    <t>asep suryana</t>
+  </si>
+  <si>
+    <t>roniman sinambela</t>
+  </si>
+  <si>
+    <t>gustiardi</t>
+  </si>
+  <si>
+    <t>eksanudin</t>
+  </si>
+  <si>
+    <t>lustia fatmawati</t>
+  </si>
+  <si>
+    <t>slamet rozali</t>
+  </si>
+  <si>
+    <t>dasarmanto</t>
+  </si>
+  <si>
+    <t>upoyo</t>
+  </si>
+  <si>
+    <t>rt 09</t>
+  </si>
+  <si>
+    <t>rt 05</t>
+  </si>
+  <si>
+    <t>rt 13</t>
+  </si>
+  <si>
+    <t>rt 08</t>
+  </si>
+  <si>
+    <t>rt 04</t>
+  </si>
+  <si>
+    <t>rt 06</t>
+  </si>
+  <si>
+    <t>rt 16</t>
   </si>
 </sst>
 </file>
@@ -408,71 +459,111 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
